--- a/biology/Botanique/Tagetes_tenuifolia/Tagetes_tenuifolia.xlsx
+++ b/biology/Botanique/Tagetes_tenuifolia/Tagetes_tenuifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Tagète citron ou Tagète à feuilles ténues, « Lemon marigold » en anglais (Tagetes tenuifolia), est une espèce de plantes à fleurs de la famille des Asteraceae. Elle est originaire des pentes sèches et chaudes des vallées d'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée annuelle à tiges cylindriques, simples et à feuilles composées, pennées, lancéolées et dentées.
 La plante adulte peut atteindre une hauteur de 30 cm avec un étalement de 40 cm.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante ne représente aucune grande difficulté de culture si ce n'est sa sensibilité à l'appétit des limaces. Une plantation en situation ensoleillée est exigée ; elle ne supporte pas l'ombre.
 Elle ne survit pas à l'exposition au gel.
@@ -577,11 +593,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut utiliser la plante entière en pot-pourri pour son odeur prononcée de citron.
 Ses fleurs peuvent être aussi utilisées pour la confection de confiseries (desserts, pâtisseries, ...).
-Elle était utilisée comme plante médicinale par les Mayas du Guatemala pour ses vertus curatives sur l'estomac, mais fortement déconseillée aux femmes enceintes[2].
+Elle était utilisée comme plante médicinale par les Mayas du Guatemala pour ses vertus curatives sur l'estomac, mais fortement déconseillée aux femmes enceintes.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			'Lemon Gem'.
